--- a/config_12.22/rank_server.xlsx
+++ b/config_12.22/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="248">
   <si>
     <t>id|</t>
   </si>
@@ -1130,12 +1130,20 @@
     <t>1000福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>sd_lhsjb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞收集榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1184,8 +1192,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1234,6 +1249,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1263,7 +1284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1388,6 +1409,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1665,11 +1701,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2517,6 +2553,42 @@
         <v>20</v>
       </c>
     </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="E24" s="48">
+        <v>1608595200</v>
+      </c>
+      <c r="F24" s="48">
+        <v>1609171199</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="47">
+        <v>23</v>
+      </c>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47">
+        <v>23</v>
+      </c>
+      <c r="L24" s="47">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2526,11 +2598,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3109,6 +3181,20 @@
         <v>23</v>
       </c>
     </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="49">
+        <v>42</v>
+      </c>
+      <c r="B43" s="49">
+        <v>23</v>
+      </c>
+      <c r="C43" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" s="49">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3118,10 +3204,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:E27"/>
+      <selection activeCell="D24" sqref="D24:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3589,6 +3675,23 @@
         <v>9</v>
       </c>
       <c r="E27" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="49">
+        <v>27</v>
+      </c>
+      <c r="B28" s="49">
+        <v>24</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="49">
+        <v>9</v>
+      </c>
+      <c r="E28" s="49">
         <v>2</v>
       </c>
     </row>
@@ -3698,11 +3801,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4245,6 +4348,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="49">
+        <v>23</v>
+      </c>
+      <c r="B24" s="49">
+        <v>1</v>
+      </c>
+      <c r="C24" s="49">
+        <v>20</v>
+      </c>
+      <c r="D24" s="49">
+        <v>100</v>
+      </c>
+      <c r="E24" s="49">
+        <v>20</v>
+      </c>
+      <c r="F24" s="49">
+        <v>180</v>
+      </c>
+      <c r="G24" s="49">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4253,11 +4379,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4560,6 +4686,20 @@
         <v>20</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="49">
+        <v>21</v>
+      </c>
+      <c r="B22" s="49">
+        <v>25</v>
+      </c>
+      <c r="C22" s="49">
+        <v>1</v>
+      </c>
+      <c r="D22" s="49">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4569,11 +4709,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4885,6 +5025,17 @@
         <v>1608566399</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="49">
+        <v>25</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="48">
+        <v>1609171199</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4893,11 +5044,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I138" sqref="I138"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7941,6 +8092,160 @@
         <v>122</v>
       </c>
     </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="49">
+        <v>136</v>
+      </c>
+      <c r="B137" s="49">
+        <v>21</v>
+      </c>
+      <c r="C137" s="49">
+        <v>1</v>
+      </c>
+      <c r="D137" s="49">
+        <v>1</v>
+      </c>
+      <c r="E137" s="49"/>
+      <c r="F137" s="49"/>
+      <c r="G137" s="49">
+        <v>121</v>
+      </c>
+      <c r="H137" s="51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="49">
+        <v>137</v>
+      </c>
+      <c r="B138" s="49">
+        <v>21</v>
+      </c>
+      <c r="C138" s="49">
+        <v>2</v>
+      </c>
+      <c r="D138" s="49">
+        <v>2</v>
+      </c>
+      <c r="E138" s="49"/>
+      <c r="F138" s="49"/>
+      <c r="G138" s="49">
+        <v>122</v>
+      </c>
+      <c r="H138" s="51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="49">
+        <v>138</v>
+      </c>
+      <c r="B139" s="49">
+        <v>21</v>
+      </c>
+      <c r="C139" s="49">
+        <v>3</v>
+      </c>
+      <c r="D139" s="49">
+        <v>3</v>
+      </c>
+      <c r="E139" s="49"/>
+      <c r="F139" s="49"/>
+      <c r="G139" s="49">
+        <v>123</v>
+      </c>
+      <c r="H139" s="51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="49">
+        <v>139</v>
+      </c>
+      <c r="B140" s="49">
+        <v>21</v>
+      </c>
+      <c r="C140" s="49">
+        <v>4</v>
+      </c>
+      <c r="D140" s="49">
+        <v>6</v>
+      </c>
+      <c r="E140" s="49"/>
+      <c r="F140" s="49"/>
+      <c r="G140" s="49">
+        <v>124</v>
+      </c>
+      <c r="H140" s="51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="49">
+        <v>140</v>
+      </c>
+      <c r="B141" s="49">
+        <v>21</v>
+      </c>
+      <c r="C141" s="49">
+        <v>7</v>
+      </c>
+      <c r="D141" s="49">
+        <v>10</v>
+      </c>
+      <c r="E141" s="49"/>
+      <c r="F141" s="49"/>
+      <c r="G141" s="49">
+        <v>125</v>
+      </c>
+      <c r="H141" s="51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="49">
+        <v>141</v>
+      </c>
+      <c r="B142" s="49">
+        <v>21</v>
+      </c>
+      <c r="C142" s="49">
+        <v>11</v>
+      </c>
+      <c r="D142" s="49">
+        <v>15</v>
+      </c>
+      <c r="E142" s="49"/>
+      <c r="F142" s="49"/>
+      <c r="G142" s="49">
+        <v>126</v>
+      </c>
+      <c r="H142" s="51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="49">
+        <v>142</v>
+      </c>
+      <c r="B143" s="49">
+        <v>21</v>
+      </c>
+      <c r="C143" s="49">
+        <v>16</v>
+      </c>
+      <c r="D143" s="49">
+        <v>20</v>
+      </c>
+      <c r="E143" s="49"/>
+      <c r="F143" s="49"/>
+      <c r="G143" s="49">
+        <v>127</v>
+      </c>
+      <c r="H143" s="51" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7950,11 +8255,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10452,6 +10757,146 @@
         <v>1</v>
       </c>
     </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="49">
+        <v>125</v>
+      </c>
+      <c r="B126" s="49">
+        <v>121</v>
+      </c>
+      <c r="C126" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="D126" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E126" s="49">
+        <v>100000</v>
+      </c>
+      <c r="F126" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="49">
+        <v>126</v>
+      </c>
+      <c r="B127" s="49">
+        <v>122</v>
+      </c>
+      <c r="C127" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="D127" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E127" s="49">
+        <v>30000</v>
+      </c>
+      <c r="F127" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="49">
+        <v>127</v>
+      </c>
+      <c r="B128" s="49">
+        <v>123</v>
+      </c>
+      <c r="C128" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="D128" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E128" s="49">
+        <v>10000</v>
+      </c>
+      <c r="F128" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="49">
+        <v>128</v>
+      </c>
+      <c r="B129" s="49">
+        <v>124</v>
+      </c>
+      <c r="C129" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="D129" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E129" s="49">
+        <v>3000</v>
+      </c>
+      <c r="F129" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="49">
+        <v>129</v>
+      </c>
+      <c r="B130" s="49">
+        <v>125</v>
+      </c>
+      <c r="C130" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="D130" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E130" s="49">
+        <v>2000</v>
+      </c>
+      <c r="F130" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="49">
+        <v>130</v>
+      </c>
+      <c r="B131" s="49">
+        <v>126</v>
+      </c>
+      <c r="C131" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D131" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E131" s="49">
+        <v>1000</v>
+      </c>
+      <c r="F131" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="49">
+        <v>131</v>
+      </c>
+      <c r="B132" s="49">
+        <v>127</v>
+      </c>
+      <c r="C132" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="D132" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E132" s="49">
+        <v>500</v>
+      </c>
+      <c r="F132" s="49">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_12.22/rank_server.xlsx
+++ b/config_12.22/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="254">
   <si>
     <t>id|</t>
   </si>
@@ -1136,6 +1136,30 @@
   </si>
   <si>
     <t>圣诞收集榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_get_use_item</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_get_use_item</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_get_use_item</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_dz_jz</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_sd_lh</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1200,7 +1224,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1255,6 +1279,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1284,7 +1314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1424,6 +1454,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2598,11 +2640,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3155,43 +3197,87 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="42">
+      <c r="B41" s="53">
         <v>21</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="42">
+      <c r="D41" s="53">
         <v>22</v>
       </c>
       <c r="E41" s="42"/>
       <c r="F41" s="42"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="23">
+    <row r="42" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="53">
+        <v>21</v>
+      </c>
+      <c r="C42" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="D42" s="53">
         <v>22</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="23">
+        <v>22</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D43" s="23">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="49">
-        <v>42</v>
-      </c>
-      <c r="B43" s="49">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="23">
+        <v>22</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="D44" s="23">
         <v>23</v>
       </c>
-      <c r="C43" s="50" t="s">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="49">
+        <v>23</v>
+      </c>
+      <c r="C45" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D43" s="49">
+      <c r="D45" s="49">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="49">
+        <v>23</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="D46" s="49">
         <v>24</v>
       </c>
     </row>
@@ -3204,10 +3290,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:D26"/>
+      <selection activeCell="A24" sqref="A24:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3645,7 +3731,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="42">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="42">
@@ -3662,7 +3748,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="23">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="23">
@@ -3679,21 +3765,62 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="49">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="23">
+        <v>23</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="E28" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="49">
         <v>24</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C29" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D29" s="49">
         <v>9</v>
       </c>
-      <c r="E28" s="49">
+      <c r="E29" s="49">
         <v>2</v>
       </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="49">
+        <v>24</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>253</v>
+      </c>
+      <c r="E30" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -8257,7 +8384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B128" sqref="B128"/>
     </sheetView>
